--- a/server/api/product_status.xlsx
+++ b/server/api/product_status.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,24 +424,44 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>image_path</t>
+          <t>Img path</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>status_exist_heneiken</t>
+          <t>Status_Heineken</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>chat_description</t>
+          <t>how many people drinking beer</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>emotion of people</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>number of marketing staff</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Point of sale material</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>image_predict_1.png</t>
+          <t>uploads/66500927_1705485489837.jpg</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -451,14 +471,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>có nhiều sản phẩm</t>
-        </is>
+          <t>There are no people drinking Heineken beers in the image.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>The mood and tone of the image is neutral as it is simply a photo of various beverage products.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>There are no marketing staff present in the image.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>The location of the scene appears to be a grocery store or supermarket.</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>image_predict_5.png</t>
+          <t>uploads/66500927_1705935033186.jpg</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -468,8 +506,61 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>không có nhiều sản phẩm</t>
-        </is>
+          <t>There are no people drinking Heineken beers in the image.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>mood_messageThe overall mood and tone of the image are neutral.</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>number_of_marketing_staff_messageThere are no marketing staff present in the image.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>location_messageThe location appears to be a grocery store.</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>uploads/66500927_1705485490993.jpg</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>There are no people drinking Heineken beers in this image.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>mood_message: Neutral</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>number_of_marketing_staff_message: There are no marketing staff present in the image.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>location_message: grocery store</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/server/api/product_status.xlsx
+++ b/server/api/product_status.xlsx
@@ -476,21 +476,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The mood and tone of the image is neutral as it is simply a photo of various beverage products.</t>
+          <t>mood_message: The mood and tone of the image are Neutral.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>There are no marketing staff present in the image.</t>
+          <t>number_of_marketing_staff_message: There are no marketing staff present in the image.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>The location of the scene appears to be a grocery store or supermarket.</t>
+          <t>location_message: The location appears to be a grocery store or supermarket.</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -506,22 +506,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>There are no people drinking Heineken beers in the image.</t>
+          <t>There are no people drinking Heineken beers in this image.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>mood_messageThe overall mood and tone of the image are neutral.</t>
+          <t>mood_message: The image presents a neutral mood, seemingly depicting a regular day at a shop.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>number_of_marketing_staff_messageThere are no marketing staff present in the image.</t>
+          <t>number_of_marketing_staff_message: There are no marketing staff visible in the image.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>location_messageThe location appears to be a grocery store.</t>
+          <t>location_message: The location appears to be a grocery store.</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -541,26 +541,26 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>There are no people drinking Heineken beers in this image.</t>
+          <t>There are no people drinking Heineken beers in the image.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>mood_message: Neutral</t>
+          <t>The mood and tone of the image are Neutral.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>number_of_marketing_staff_message: There are no marketing staff present in the image.</t>
+          <t>There are no marketing staff present in the image.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>location_message: grocery store</t>
+          <t>The location of the scene appears to be a grocery store.</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
